--- a/latest/ref/expense_2018.xlsx
+++ b/latest/ref/expense_2018.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\expense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tranings\Git\mine\latest\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF19A28-FBF4-407D-85C4-1570A56D6734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan'18" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,25 @@
     <sheet name="June'18" sheetId="7" r:id="rId6"/>
     <sheet name="MFsLicElss" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="140">
   <si>
     <t>Expense</t>
   </si>
@@ -248,9 +257,6 @@
     <t>18th</t>
   </si>
   <si>
-    <t>15th</t>
-  </si>
-  <si>
     <t>5th</t>
   </si>
   <si>
@@ -420,12 +426,45 @@
   </si>
   <si>
     <t>3250/month</t>
+  </si>
+  <si>
+    <t>Parag Parikh Long term equity fund</t>
+  </si>
+  <si>
+    <t>2000/no limit</t>
+  </si>
+  <si>
+    <t>From Feb 2021</t>
+  </si>
+  <si>
+    <t>UTI Nifty Next 50 Index Fund</t>
+  </si>
+  <si>
+    <t>1000/no limit</t>
+  </si>
+  <si>
+    <t>Update to Previous</t>
+  </si>
+  <si>
+    <t>Reduced amount to 3k/month after 3 years (from Feb 2021)</t>
+  </si>
+  <si>
+    <t>Stopped SIP from June 2020. Money is not withdrawn)</t>
+  </si>
+  <si>
+    <t>Additional buy 10k</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>From March 2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,7 +572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -629,11 +668,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -684,6 +738,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,20 +1028,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,12 +1049,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -998,7 +1062,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1006,7 +1070,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1014,7 +1078,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1022,13 +1086,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <f>SUM(B4:B7)</f>
         <v>15800</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1100,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1050,7 +1114,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1064,7 +1128,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>150</v>
@@ -1076,7 +1140,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1084,7 +1148,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -1092,7 +1156,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1100,7 +1164,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1108,7 +1172,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1180,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1124,7 +1188,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1132,13 +1196,13 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <f>SUM(B16:B20)</f>
         <v>35000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -1147,7 +1211,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1155,7 +1219,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1163,7 +1227,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4">
         <v>29000</v>
@@ -1176,25 +1240,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:K29"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
@@ -1204,7 +1268,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>22</v>
       </c>
@@ -1218,13 +1282,13 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>23</v>
       </c>
@@ -1243,7 +1307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>24</v>
       </c>
@@ -1263,7 +1327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1347,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>26</v>
       </c>
@@ -1291,7 +1355,7 @@
         <v>1000</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="17">
         <v>3000</v>
@@ -1300,7 +1364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>27</v>
       </c>
@@ -1308,13 +1372,13 @@
         <v>400</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="17">
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>28</v>
       </c>
@@ -1324,7 +1388,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>39</v>
       </c>
@@ -1332,7 +1396,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>49</v>
       </c>
@@ -1342,7 +1406,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>50</v>
       </c>
@@ -1352,7 +1416,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>51</v>
       </c>
@@ -1362,13 +1426,13 @@
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="F17" s="16"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16" t="s">
         <v>53</v>
       </c>
@@ -1383,7 +1447,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
         <v>56</v>
       </c>
@@ -1391,7 +1455,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
         <v>57</v>
       </c>
@@ -1399,7 +1463,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>58</v>
       </c>
@@ -1411,7 +1475,7 @@
         <v>51650</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>2</v>
       </c>
@@ -1419,7 +1483,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>61</v>
       </c>
@@ -1427,26 +1491,26 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20"/>
       <c r="B27" s="21">
         <f>SUM(B8:B26)</f>
         <v>18150</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B29">
         <f>B27-6000</f>
         <v>12150</v>
@@ -1459,22 +1523,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
@@ -1484,7 +1548,7 @@
       </c>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
@@ -1498,13 +1562,13 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>23</v>
       </c>
@@ -1515,7 +1579,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="F5" s="16" t="s">
@@ -1525,9 +1589,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="23">
         <v>1600</v>
@@ -1539,21 +1603,21 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="17">
         <v>700</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="17">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>2</v>
       </c>
@@ -1561,13 +1625,13 @@
         <v>200</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="17">
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
@@ -1575,15 +1639,15 @@
         <v>1350</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="17">
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="17">
         <v>475</v>
@@ -1595,7 +1659,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>2</v>
       </c>
@@ -1605,9 +1669,9 @@
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="29">
         <v>960</v>
@@ -1617,23 +1681,23 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="29">
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23">
         <f>SUM(B6:B22)</f>
         <v>6185</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25">
         <v>6000</v>
@@ -1645,16 +1709,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
@@ -1671,32 +1735,32 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2">
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3">
         <v>56000</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="17">
         <v>6000</v>
@@ -1706,17 +1770,17 @@
         <v>173000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="17">
         <v>2200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="17">
         <v>1000</v>
@@ -1728,63 +1792,63 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="17">
         <v>450</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7">
         <v>16000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="17">
         <v>1600</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8">
         <v>17600</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="17">
         <v>750</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9">
         <v>40000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="17">
         <v>1000</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10">
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>2</v>
       </c>
@@ -1792,7 +1856,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>2</v>
       </c>
@@ -1800,11 +1864,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="G14">
@@ -1812,7 +1876,7 @@
         <v>84400</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="20"/>
       <c r="B15" s="21">
         <f>SUM(B5:B14)</f>
@@ -1826,19 +1890,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
@@ -1855,29 +1919,29 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3">
         <v>48000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="17">
         <v>6000</v>
@@ -1887,17 +1951,17 @@
         <v>141000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="17">
         <v>799</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="17">
         <v>1200</v>
@@ -1909,91 +1973,91 @@
         <v>10000</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J6">
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="17"/>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7">
         <v>8500</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J7">
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="17">
         <v>1600</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G8">
         <v>16000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="17">
         <v>1600</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9">
         <v>12600</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="17">
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="17">
         <v>1500</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="17">
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="17">
         <v>1500</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="G14">
@@ -2001,16 +2065,16 @@
         <v>47100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="20"/>
       <c r="B15" s="21">
         <f>SUM(B5:B14)</f>
         <v>13699</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2019,19 +2083,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
@@ -2048,32 +2112,32 @@
         <v>98000</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G2">
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="17"/>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>120000</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="17">
         <v>6000</v>
@@ -2082,17 +2146,17 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="17">
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="17">
         <v>8000</v>
@@ -2104,57 +2168,57 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="17">
         <v>1600</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7">
         <v>16000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8">
         <v>3250</v>
       </c>
       <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" t="s">
         <v>117</v>
       </c>
-      <c r="I8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="G14">
@@ -2162,7 +2226,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="20"/>
       <c r="B15" s="21">
         <f>SUM(B5:B14)</f>
@@ -2175,25 +2239,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="5" width="20.42578125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="8"/>
+    <col min="5" max="5" width="20.453125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>40</v>
       </c>
@@ -2209,14 +2273,17 @@
       <c r="E1" s="10" t="s">
         <v>68</v>
       </c>
+      <c r="F1" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="G1" s="10" t="s">
         <v>67</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
@@ -2231,6 +2298,9 @@
       </c>
       <c r="E2" s="8" t="s">
         <v>60</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>135</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>72</v>
@@ -2240,10 +2310,10 @@
         <v>90000</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
@@ -2260,19 +2330,19 @@
         <v>59</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3">
         <f>48000-16000</f>
         <v>32000</v>
       </c>
       <c r="J3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>63</v>
@@ -2286,8 +2356,8 @@
       <c r="E4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>79</v>
+      <c r="F4" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>69</v>
@@ -2296,13 +2366,13 @@
         <v>120000</v>
       </c>
       <c r="J4" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" t="s">
         <v>122</v>
       </c>
-      <c r="K4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>64</v>
       </c>
@@ -2318,6 +2388,7 @@
       <c r="E5" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="F5" s="37"/>
       <c r="G5" s="24" t="s">
         <v>69</v>
       </c>
@@ -2325,10 +2396,10 @@
         <v>15000</v>
       </c>
       <c r="J5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>65</v>
       </c>
@@ -2342,104 +2413,142 @@
         <v>12000</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>136</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C9" s="8">
         <v>576000</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D9" s="8">
         <v>11200</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="24" t="s">
+      <c r="F9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="8">
-        <f>SUM(C2:C7)</f>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C10" s="8">
+        <f>SUM(C2:C9)</f>
         <v>1272000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C12" s="8">
         <v>608000</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D12" s="8">
         <v>152000</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E12" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="9">
-        <f>SUM(C8,C10)</f>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C14" s="9">
+        <f>SUM(C10,C12)</f>
         <v>1880000</v>
       </c>
-      <c r="D12" s="11">
-        <f>SUM(D2:D11)</f>
+      <c r="D14" s="11">
+        <f>SUM(D2:D13)</f>
         <v>237200</v>
       </c>
-      <c r="E12" s="33">
-        <f>C12-D12</f>
+      <c r="E14" s="33">
+        <f>C14-D14</f>
         <v>1642800</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I14" s="4">
         <v>135000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="B19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="8">
+        <v>25000</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3250</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="8">
-        <v>25000</v>
-      </c>
-      <c r="D17" s="8">
-        <v>3250</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>73</v>
+      <c r="G19" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/latest/ref/expense_2018.xlsx
+++ b/latest/ref/expense_2018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tranings\Git\mine\latest\ref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\new\mine\latest\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF19A28-FBF4-407D-85C4-1570A56D6734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B75BE73-B323-470D-953E-4988007DE71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="142">
   <si>
     <t>Expense</t>
   </si>
@@ -452,13 +452,19 @@
     <t>Stopped SIP from June 2020. Money is not withdrawn)</t>
   </si>
   <si>
-    <t>Additional buy 10k</t>
-  </si>
-  <si>
     <t>6th</t>
   </si>
   <si>
     <t>From March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done </t>
+  </si>
+  <si>
+    <t>Candere for Bangle</t>
+  </si>
+  <si>
+    <t>Additional buy 15k</t>
   </si>
 </sst>
 </file>
@@ -2240,10 +2246,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2433,7 +2439,7 @@
         <v>131</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>72</v>
@@ -2451,7 +2457,7 @@
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.35">
@@ -2497,7 +2503,7 @@
         <v>152000</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -2548,7 +2554,21 @@
         <v>127</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>72</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="8">
+        <v>12500</v>
+      </c>
+      <c r="C20" s="8">
+        <v>68000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
